--- a/dividend/econ 6006 gp.xlsx
+++ b/dividend/econ 6006 gp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hao/Desktop/GP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hao/Documents/GitHub/sgx3000/dividend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BC0EBC-59F0-B046-A19D-47BA0DF2389D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A860EDB-85BA-C642-BF02-894664FA82C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="780" windowWidth="34200" windowHeight="19900" xr2:uid="{F61303E6-65C8-CF46-B1B6-3CF56AC8BDE2}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19900" xr2:uid="{F61303E6-65C8-CF46-B1B6-3CF56AC8BDE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447F5F53-A2B4-E548-9598-A3E57BFF9122}">
   <dimension ref="A1:AD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="104" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="104" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2019,10 +2019,10 @@
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="3">
-        <v>44925</v>
+        <v>45289</v>
       </c>
       <c r="B31" s="4">
-        <f>AVERAGE(B3,E3,H3)</f>
+        <f t="shared" ref="B31:B54" si="0">AVERAGE(B3,E3,H3)</f>
         <v>5.7999999999999996E-2</v>
       </c>
       <c r="D31" t="s">
@@ -2036,7 +2036,7 @@
         <v>45289</v>
       </c>
       <c r="L31" s="4">
-        <f>AVERAGE(L3,O3,R3)</f>
+        <f t="shared" ref="L31:L54" si="1">AVERAGE(L3,O3,R3)</f>
         <v>2.5833333333333337E-2</v>
       </c>
       <c r="N31" t="s">
@@ -2050,7 +2050,7 @@
         <v>45289</v>
       </c>
       <c r="V31" s="4">
-        <f>AVERAGE(V3,Z3,AD3)</f>
+        <f t="shared" ref="V31:V51" si="2">AVERAGE(V3,Z3,AD3)</f>
         <v>7.1266666666666659E-2</v>
       </c>
       <c r="X31" t="s">
@@ -2070,47 +2070,47 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="3">
-        <v>44561</v>
+        <v>44925</v>
       </c>
       <c r="B32" s="4">
-        <f>AVERAGE(B4,E4,H4)</f>
+        <f t="shared" si="0"/>
         <v>4.2533333333333333E-2</v>
       </c>
       <c r="K32" s="3">
         <v>44925</v>
       </c>
       <c r="L32" s="4">
-        <f>AVERAGE(L4,O4,R4)</f>
+        <f t="shared" si="1"/>
         <v>2.4999999999999998E-2</v>
       </c>
       <c r="U32" s="3">
         <v>44925</v>
       </c>
       <c r="V32" s="4">
-        <f>AVERAGE(V4,Z4,AD4)</f>
+        <f t="shared" si="2"/>
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="AB32" s="3">
         <v>44925</v>
       </c>
       <c r="AC32" s="4">
-        <f t="shared" ref="AC32:AC51" si="0">AVERAGE(B32,L32,V32)</f>
+        <f t="shared" ref="AC32:AC51" si="3">AVERAGE(B32,L32,V32)</f>
         <v>4.3911111111111102E-2</v>
       </c>
     </row>
     <row r="33" spans="1:29">
       <c r="A33" s="3">
-        <v>44196</v>
+        <v>44561</v>
       </c>
       <c r="B33" s="4">
-        <f>AVERAGE(B5,E5,H5)</f>
+        <f t="shared" si="0"/>
         <v>3.4633333333333328E-2</v>
       </c>
       <c r="K33" s="3">
         <v>44561</v>
       </c>
       <c r="L33" s="4">
-        <f>AVERAGE(L5,O5,R5)</f>
+        <f t="shared" si="1"/>
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="N33" s="4"/>
@@ -2118,595 +2118,602 @@
         <v>44561</v>
       </c>
       <c r="V33" s="4">
-        <f>AVERAGE(V5,Z5,AD5)</f>
+        <f t="shared" si="2"/>
         <v>5.8966666666666667E-2</v>
       </c>
       <c r="AB33" s="3">
         <v>44561</v>
       </c>
       <c r="AC33" s="4">
+        <f t="shared" si="3"/>
+        <v>3.6499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34" s="3">
+        <v>44196</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3733333333333339E-2</v>
+      </c>
+      <c r="K34" s="3">
+        <v>44196</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="1"/>
+        <v>2.8466666666666668E-2</v>
+      </c>
+      <c r="U34" s="3">
+        <v>44196</v>
+      </c>
+      <c r="V34" s="4">
+        <f t="shared" si="2"/>
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>44196</v>
+      </c>
+      <c r="AC34" s="4">
+        <f t="shared" si="3"/>
+        <v>4.2866666666666671E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" s="3">
+        <v>43830</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3366666666666671E-2</v>
+      </c>
+      <c r="K35" s="3">
+        <v>43830</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="1"/>
+        <v>2.41E-2</v>
+      </c>
+      <c r="U35" s="3">
+        <v>43830</v>
+      </c>
+      <c r="V35" s="4">
+        <f t="shared" si="2"/>
+        <v>4.8033333333333338E-2</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>43830</v>
+      </c>
+      <c r="AC35" s="4">
+        <f t="shared" si="3"/>
+        <v>3.8500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36" s="3">
+        <v>43465</v>
+      </c>
+      <c r="B36" s="4">
         <f t="shared" si="0"/>
         <v>3.6499999999999998E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:29">
-      <c r="A34" s="3">
-        <v>43830</v>
-      </c>
-      <c r="B34" s="4">
-        <f>AVERAGE(B6,E6,H6)</f>
-        <v>4.3733333333333339E-2</v>
-      </c>
-      <c r="K34" s="3">
-        <v>44196</v>
-      </c>
-      <c r="L34" s="4">
-        <f>AVERAGE(L6,O6,R6)</f>
-        <v>2.8466666666666668E-2</v>
-      </c>
-      <c r="U34" s="3">
-        <v>44196</v>
-      </c>
-      <c r="V34" s="4">
-        <f>AVERAGE(V6,Z6,AD6)</f>
-        <v>5.6399999999999999E-2</v>
-      </c>
-      <c r="AB34" s="3">
-        <v>44196</v>
-      </c>
-      <c r="AC34" s="4">
-        <f t="shared" si="0"/>
-        <v>4.2866666666666671E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29">
-      <c r="A35" s="3">
-        <v>43465</v>
-      </c>
-      <c r="B35" s="4">
-        <f>AVERAGE(B7,E7,H7)</f>
-        <v>4.3366666666666671E-2</v>
-      </c>
-      <c r="K35" s="3">
-        <v>43830</v>
-      </c>
-      <c r="L35" s="4">
-        <f>AVERAGE(L7,O7,R7)</f>
-        <v>2.41E-2</v>
-      </c>
-      <c r="U35" s="3">
-        <v>43830</v>
-      </c>
-      <c r="V35" s="4">
-        <f>AVERAGE(V7,Z7,AD7)</f>
-        <v>4.8033333333333338E-2</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>43830</v>
-      </c>
-      <c r="AC35" s="4">
-        <f t="shared" si="0"/>
-        <v>3.8500000000000006E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29">
-      <c r="A36" s="3">
-        <v>43098</v>
-      </c>
-      <c r="B36" s="4">
-        <f>AVERAGE(B8,E8,H8)</f>
-        <v>3.6499999999999998E-2</v>
-      </c>
       <c r="K36" s="3">
         <v>43465</v>
       </c>
       <c r="L36" s="4">
-        <f>AVERAGE(L8,O8,R8)</f>
+        <f t="shared" si="1"/>
         <v>2.573333333333333E-2</v>
       </c>
       <c r="U36" s="3">
         <v>43465</v>
       </c>
       <c r="V36" s="4">
-        <f>AVERAGE(V8,Z8,AD8)</f>
+        <f t="shared" si="2"/>
         <v>4.7466666666666664E-2</v>
       </c>
       <c r="AB36" s="3">
         <v>43465</v>
       </c>
       <c r="AC36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.6566666666666664E-2</v>
       </c>
     </row>
     <row r="37" spans="1:29">
       <c r="A37" s="3">
-        <v>42734</v>
+        <v>43098</v>
       </c>
       <c r="B37" s="4">
-        <f>AVERAGE(B9,E9,H9)</f>
+        <f t="shared" si="0"/>
         <v>2.7E-2</v>
       </c>
       <c r="K37" s="3">
         <v>43098</v>
       </c>
       <c r="L37" s="4">
-        <f>AVERAGE(L9,O9,R9)</f>
+        <f t="shared" si="1"/>
         <v>1.7733333333333334E-2</v>
       </c>
       <c r="U37" s="3">
         <v>43098</v>
       </c>
       <c r="V37" s="4">
-        <f>AVERAGE(V9,Z9,AD9)</f>
+        <f t="shared" si="2"/>
         <v>3.2300000000000002E-2</v>
       </c>
       <c r="AB37" s="3">
         <v>43098</v>
       </c>
       <c r="AC37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.5677777777777782E-2</v>
       </c>
     </row>
     <row r="38" spans="1:29">
       <c r="A38" s="3">
-        <v>42369</v>
+        <v>42734</v>
       </c>
       <c r="B38" s="4">
-        <f>AVERAGE(B10,E10,H10)</f>
+        <f t="shared" si="0"/>
         <v>3.6433333333333331E-2</v>
       </c>
       <c r="K38" s="3">
         <v>42734</v>
       </c>
       <c r="L38" s="4">
-        <f>AVERAGE(L10,O10,R10)</f>
+        <f t="shared" si="1"/>
         <v>1.833333333333333E-2</v>
       </c>
       <c r="U38" s="3">
         <v>42734</v>
       </c>
       <c r="V38" s="4">
-        <f>AVERAGE(V10,Z10,AD10)</f>
+        <f t="shared" si="2"/>
         <v>5.3233333333333334E-2</v>
       </c>
       <c r="AB38" s="3">
         <v>42734</v>
       </c>
       <c r="AC38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="39" spans="1:29">
       <c r="A39" s="3">
-        <v>42004</v>
+        <v>42369</v>
       </c>
       <c r="B39" s="4">
-        <f>AVERAGE(B11,E11,H11)</f>
+        <f t="shared" si="0"/>
         <v>3.5800000000000005E-2</v>
       </c>
       <c r="K39" s="3">
         <v>42369</v>
       </c>
       <c r="L39" s="4">
-        <f>AVERAGE(L11,O11,R11)</f>
+        <f t="shared" si="1"/>
         <v>1.9466666666666667E-2</v>
       </c>
       <c r="U39" s="3">
         <v>42369</v>
       </c>
       <c r="V39" s="4">
-        <f>AVERAGE(V11,Z11,AD11)</f>
+        <f t="shared" si="2"/>
         <v>5.4100000000000002E-2</v>
       </c>
       <c r="AB39" s="3">
         <v>42369</v>
       </c>
       <c r="AC39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.6455555555555554E-2</v>
       </c>
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="3">
-        <v>41639</v>
+        <v>42004</v>
       </c>
       <c r="B40" s="4">
-        <f>AVERAGE(B12,E12,H12)</f>
+        <f t="shared" si="0"/>
         <v>2.3633333333333336E-2</v>
       </c>
       <c r="K40" s="3">
         <v>42004</v>
       </c>
       <c r="L40" s="4">
-        <f>AVERAGE(L12,O12,R12)</f>
+        <f t="shared" si="1"/>
         <v>1.6733333333333333E-2</v>
       </c>
       <c r="U40" s="3">
         <v>42004</v>
       </c>
       <c r="V40" s="4">
-        <f>AVERAGE(V12,Z12,AD12)</f>
+        <f t="shared" si="2"/>
         <v>4.7233333333333329E-2</v>
       </c>
       <c r="AB40" s="3">
         <v>42004</v>
       </c>
       <c r="AC40" s="4">
+        <f t="shared" si="3"/>
+        <v>2.92E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
+      <c r="A41" s="3">
+        <v>41639</v>
+      </c>
+      <c r="B41" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="K41" s="3">
+        <v>41639</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5333333333333332E-2</v>
+      </c>
+      <c r="U41" s="3">
+        <v>41639</v>
+      </c>
+      <c r="V41" s="4">
+        <f t="shared" si="2"/>
+        <v>5.3366666666666666E-2</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>41639</v>
+      </c>
+      <c r="AC41" s="4">
+        <f t="shared" si="3"/>
+        <v>3.1800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
+      <c r="A42" s="3">
+        <v>41274</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3299999999999996E-2</v>
+      </c>
+      <c r="K42" s="3">
+        <v>41274</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6533333333333334E-2</v>
+      </c>
+      <c r="U42" s="3">
+        <v>41274</v>
+      </c>
+      <c r="V42" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>41274</v>
+      </c>
+      <c r="AC42" s="4">
+        <f t="shared" si="3"/>
+        <v>3.1511111111111108E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
+      <c r="A43" s="3">
+        <v>40907</v>
+      </c>
+      <c r="B43" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5500000000000004E-2</v>
+      </c>
+      <c r="K43" s="3">
+        <v>40907</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5733333333333332E-2</v>
+      </c>
+      <c r="U43" s="3">
+        <v>40907</v>
+      </c>
+      <c r="V43" s="4">
+        <f t="shared" si="2"/>
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>40907</v>
+      </c>
+      <c r="AC43" s="4">
+        <f t="shared" si="3"/>
+        <v>3.347777777777778E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
+      <c r="A44" s="3">
+        <v>40543</v>
+      </c>
+      <c r="B44" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7200000000000002E-2</v>
+      </c>
+      <c r="K44" s="3">
+        <v>40543</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="1"/>
+        <v>4.333333333333334E-3</v>
+      </c>
+      <c r="U44" s="3">
+        <v>40543</v>
+      </c>
+      <c r="V44" s="4">
+        <f t="shared" si="2"/>
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>40543</v>
+      </c>
+      <c r="AC44" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2677777777777779E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
+      <c r="A45" s="3">
+        <v>40177</v>
+      </c>
+      <c r="B45" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2633333333333334E-2</v>
+      </c>
+      <c r="K45" s="3">
+        <v>40177</v>
+      </c>
+      <c r="L45" s="4">
+        <f t="shared" si="1"/>
+        <v>8.1666666666666676E-3</v>
+      </c>
+      <c r="U45" s="3">
+        <v>40177</v>
+      </c>
+      <c r="V45" s="4">
+        <f t="shared" si="2"/>
+        <v>1.84E-2</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>40177</v>
+      </c>
+      <c r="AC45" s="4">
+        <f t="shared" si="3"/>
+        <v>1.9733333333333335E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="A46" s="3">
+        <v>39813</v>
+      </c>
+      <c r="B46" s="4">
+        <f t="shared" si="0"/>
+        <v>6.7133333333333337E-2</v>
+      </c>
+      <c r="K46" s="3">
+        <v>39813</v>
+      </c>
+      <c r="L46" s="4">
+        <f t="shared" si="1"/>
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="U46" s="3">
+        <v>39813</v>
+      </c>
+      <c r="V46" s="4">
+        <f t="shared" si="2"/>
+        <v>6.1266666666666664E-2</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>39813</v>
+      </c>
+      <c r="AC46" s="4">
+        <f t="shared" si="3"/>
+        <v>6.9400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
+      <c r="A47" s="3">
+        <v>39447</v>
+      </c>
+      <c r="B47" s="4">
+        <f t="shared" si="0"/>
+        <v>2.513333333333333E-2</v>
+      </c>
+      <c r="K47" s="3">
+        <v>39447</v>
+      </c>
+      <c r="L47" s="4">
+        <f t="shared" si="1"/>
+        <v>4.0833333333333333E-2</v>
+      </c>
+      <c r="U47" s="3">
+        <v>39447</v>
+      </c>
+      <c r="V47" s="4">
+        <f t="shared" si="2"/>
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>39447</v>
+      </c>
+      <c r="AC47" s="4">
+        <f t="shared" si="3"/>
+        <v>2.9555555555555554E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29">
+      <c r="A48" s="3">
+        <v>39080</v>
+      </c>
+      <c r="B48" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0299999999999997E-2</v>
+      </c>
+      <c r="K48" s="3">
+        <v>39080</v>
+      </c>
+      <c r="L48" s="4">
+        <f t="shared" si="1"/>
+        <v>3.04E-2</v>
+      </c>
+      <c r="U48" s="3">
+        <v>39080</v>
+      </c>
+      <c r="V48" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1653333333333333E-2</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>39080</v>
+      </c>
+      <c r="AC48" s="4">
+        <f t="shared" si="3"/>
+        <v>2.745111111111111E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29">
+      <c r="A49" s="3">
+        <v>38717</v>
+      </c>
+      <c r="B49" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5799999999999995E-2</v>
+      </c>
+      <c r="K49" s="3">
+        <v>38717</v>
+      </c>
+      <c r="L49" s="4">
+        <f t="shared" si="1"/>
+        <v>3.2900000000000006E-2</v>
+      </c>
+      <c r="U49" s="3">
+        <v>38717</v>
+      </c>
+      <c r="V49" s="4">
+        <f t="shared" si="2"/>
+        <v>3.0134999999999999E-2</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>38717</v>
+      </c>
+      <c r="AC49" s="4">
+        <f t="shared" si="3"/>
+        <v>3.9611666666666663E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29">
+      <c r="A50" s="3">
+        <v>38352</v>
+      </c>
+      <c r="B50" s="4">
         <f t="shared" si="0"/>
         <v>2.92E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:29">
-      <c r="A41" s="3">
-        <v>41274</v>
-      </c>
-      <c r="B41" s="4">
-        <f>AVERAGE(B13,E13,H13)</f>
-        <v>2.6700000000000002E-2</v>
-      </c>
-      <c r="K41" s="3">
-        <v>41639</v>
-      </c>
-      <c r="L41" s="4">
-        <f>AVERAGE(L13,O13,R13)</f>
-        <v>1.5333333333333332E-2</v>
-      </c>
-      <c r="U41" s="3">
-        <v>41639</v>
-      </c>
-      <c r="V41" s="4">
-        <f>AVERAGE(V13,Z13,AD13)</f>
-        <v>5.3366666666666666E-2</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>41639</v>
-      </c>
-      <c r="AC41" s="4">
-        <f t="shared" si="0"/>
-        <v>3.1800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29">
-      <c r="A42" s="3">
-        <v>40907</v>
-      </c>
-      <c r="B42" s="4">
-        <f>AVERAGE(B14,E14,H14)</f>
-        <v>3.3299999999999996E-2</v>
-      </c>
-      <c r="K42" s="3">
-        <v>41274</v>
-      </c>
-      <c r="L42" s="4">
-        <f>AVERAGE(L14,O14,R14)</f>
-        <v>1.6533333333333334E-2</v>
-      </c>
-      <c r="U42" s="3">
-        <v>41274</v>
-      </c>
-      <c r="V42" s="4">
-        <f>AVERAGE(V14,Z14,AD14)</f>
-        <v>4.4699999999999997E-2</v>
-      </c>
-      <c r="AB42" s="3">
-        <v>41274</v>
-      </c>
-      <c r="AC42" s="4">
-        <f t="shared" si="0"/>
-        <v>3.1511111111111108E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29">
-      <c r="A43" s="3">
-        <v>40543</v>
-      </c>
-      <c r="B43" s="4">
-        <f>AVERAGE(B15,E15,H15)</f>
-        <v>3.5500000000000004E-2</v>
-      </c>
-      <c r="K43" s="3">
-        <v>40907</v>
-      </c>
-      <c r="L43" s="4">
-        <f>AVERAGE(L15,O15,R15)</f>
-        <v>1.5733333333333332E-2</v>
-      </c>
-      <c r="U43" s="3">
-        <v>40907</v>
-      </c>
-      <c r="V43" s="4">
-        <f>AVERAGE(V15,Z15,AD15)</f>
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>40907</v>
-      </c>
-      <c r="AC43" s="4">
-        <f t="shared" si="0"/>
-        <v>3.347777777777778E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29">
-      <c r="A44" s="3">
-        <v>40177</v>
-      </c>
-      <c r="B44" s="4">
-        <f>AVERAGE(B16,E16,H16)</f>
-        <v>2.7200000000000002E-2</v>
-      </c>
-      <c r="K44" s="3">
-        <v>40543</v>
-      </c>
-      <c r="L44" s="4">
-        <f>AVERAGE(L16,O16,R16)</f>
-        <v>4.333333333333334E-3</v>
-      </c>
-      <c r="U44" s="3">
-        <v>40543</v>
-      </c>
-      <c r="V44" s="4">
-        <f>AVERAGE(V16,Z16,AD16)</f>
-        <v>3.6499999999999998E-2</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>40543</v>
-      </c>
-      <c r="AC44" s="4">
-        <f t="shared" si="0"/>
-        <v>2.2677777777777779E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29">
-      <c r="A45" s="3">
-        <v>39813</v>
-      </c>
-      <c r="B45" s="4">
-        <f>AVERAGE(B17,E17,H17)</f>
-        <v>3.2633333333333334E-2</v>
-      </c>
-      <c r="K45" s="3">
-        <v>40177</v>
-      </c>
-      <c r="L45" s="4">
-        <f>AVERAGE(L17,O17,R17)</f>
-        <v>8.1666666666666676E-3</v>
-      </c>
-      <c r="U45" s="3">
-        <v>40177</v>
-      </c>
-      <c r="V45" s="4">
-        <f>AVERAGE(V17,Z17,AD17)</f>
-        <v>1.84E-2</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>40177</v>
-      </c>
-      <c r="AC45" s="4">
-        <f t="shared" si="0"/>
-        <v>1.9733333333333335E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29">
-      <c r="A46" s="3">
-        <v>39447</v>
-      </c>
-      <c r="B46" s="4">
-        <f>AVERAGE(B18,E18,H18)</f>
-        <v>6.7133333333333337E-2</v>
-      </c>
-      <c r="K46" s="3">
-        <v>39813</v>
-      </c>
-      <c r="L46" s="4">
-        <f>AVERAGE(L18,O18,R18)</f>
-        <v>7.9799999999999996E-2</v>
-      </c>
-      <c r="U46" s="3">
-        <v>39813</v>
-      </c>
-      <c r="V46" s="4">
-        <f>AVERAGE(V18,Z18,AD18)</f>
-        <v>6.1266666666666664E-2</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>39813</v>
-      </c>
-      <c r="AC46" s="4">
-        <f t="shared" si="0"/>
-        <v>6.9400000000000003E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29">
-      <c r="A47" s="3">
-        <v>39080</v>
-      </c>
-      <c r="B47" s="4">
-        <f>AVERAGE(B19,E19,H19)</f>
-        <v>2.513333333333333E-2</v>
-      </c>
-      <c r="K47" s="3">
-        <v>39447</v>
-      </c>
-      <c r="L47" s="4">
-        <f>AVERAGE(L19,O19,R19)</f>
-        <v>4.0833333333333333E-2</v>
-      </c>
-      <c r="U47" s="3">
-        <v>39447</v>
-      </c>
-      <c r="V47" s="4">
-        <f>AVERAGE(V19,Z19,AD19)</f>
-        <v>2.2700000000000001E-2</v>
-      </c>
-      <c r="AB47" s="3">
-        <v>39447</v>
-      </c>
-      <c r="AC47" s="4">
-        <f t="shared" si="0"/>
-        <v>2.9555555555555554E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29">
-      <c r="A48" s="3">
-        <v>38717</v>
-      </c>
-      <c r="B48" s="4">
-        <f>AVERAGE(B20,E20,H20)</f>
-        <v>3.0299999999999997E-2</v>
-      </c>
-      <c r="K48" s="3">
-        <v>39080</v>
-      </c>
-      <c r="L48" s="4">
-        <f>AVERAGE(L20,O20,R20)</f>
-        <v>3.04E-2</v>
-      </c>
-      <c r="U48" s="3">
-        <v>39080</v>
-      </c>
-      <c r="V48" s="4">
-        <f>AVERAGE(V20,Z20,AD20)</f>
-        <v>2.1653333333333333E-2</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>39080</v>
-      </c>
-      <c r="AC48" s="4">
-        <f t="shared" si="0"/>
-        <v>2.745111111111111E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29">
-      <c r="A49" s="3">
-        <v>38352</v>
-      </c>
-      <c r="B49" s="4">
-        <f>AVERAGE(B21,E21,H21)</f>
-        <v>5.5799999999999995E-2</v>
-      </c>
-      <c r="K49" s="3">
-        <v>38717</v>
-      </c>
-      <c r="L49" s="4">
-        <f>AVERAGE(L21,O21,R21)</f>
-        <v>3.2900000000000006E-2</v>
-      </c>
-      <c r="U49" s="3">
-        <v>38717</v>
-      </c>
-      <c r="V49" s="4">
-        <f>AVERAGE(V21,Z21,AD21)</f>
-        <v>3.0134999999999999E-2</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>38717</v>
-      </c>
-      <c r="AC49" s="4">
-        <f t="shared" si="0"/>
-        <v>3.9611666666666663E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29">
-      <c r="A50" s="3">
-        <v>37986</v>
-      </c>
-      <c r="B50" s="4">
-        <f>AVERAGE(B22,E22,H22)</f>
-        <v>2.92E-2</v>
-      </c>
       <c r="K50" s="3">
         <v>38352</v>
       </c>
       <c r="L50" s="4">
-        <f>AVERAGE(L22,O22,R22)</f>
+        <f t="shared" si="1"/>
         <v>3.0733333333333335E-2</v>
       </c>
       <c r="U50" s="3">
         <v>38352</v>
       </c>
       <c r="V50" s="4">
-        <f>AVERAGE(V22,Z22,AD22)</f>
+        <f t="shared" si="2"/>
         <v>4.3099999999999999E-2</v>
       </c>
       <c r="AB50" s="3">
         <v>38352</v>
       </c>
       <c r="AC50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.4344444444444448E-2</v>
       </c>
     </row>
     <row r="51" spans="1:29">
       <c r="A51" s="3">
-        <v>37621</v>
+        <v>37986</v>
       </c>
       <c r="B51" s="4">
-        <f>AVERAGE(B23,E23,H23)</f>
+        <f t="shared" si="0"/>
         <v>3.2466666666666665E-2</v>
       </c>
       <c r="K51" s="3">
         <v>37986</v>
       </c>
       <c r="L51" s="4">
-        <f>AVERAGE(L23,O23,R23)</f>
+        <f t="shared" si="1"/>
         <v>2.9699999999999994E-2</v>
       </c>
       <c r="U51" s="3">
         <v>37986</v>
       </c>
       <c r="V51" s="4">
-        <f>AVERAGE(V23,Z23,AD23)</f>
+        <f t="shared" si="2"/>
         <v>2.81E-2</v>
       </c>
       <c r="AB51" s="3">
         <v>37986</v>
       </c>
       <c r="AC51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.0088888888888887E-2</v>
       </c>
     </row>
     <row r="52" spans="1:29">
       <c r="A52" s="3">
-        <v>37256</v>
+        <v>37621</v>
       </c>
       <c r="B52" s="4">
-        <f>AVERAGE(B24,E24,H24)</f>
+        <f t="shared" si="0"/>
         <v>2.2133333333333335E-2</v>
       </c>
       <c r="K52" s="3">
         <v>37621</v>
       </c>
       <c r="L52" s="4">
-        <f>AVERAGE(L24,O24,R24)</f>
+        <f t="shared" si="1"/>
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:29">
       <c r="A53" s="3">
-        <v>36889</v>
+        <v>37256</v>
       </c>
       <c r="B53" s="4">
-        <f>AVERAGE(B25,E25,H25)</f>
+        <f t="shared" si="0"/>
         <v>2.2033333333333332E-2</v>
       </c>
       <c r="K53" s="3">
         <v>37256</v>
       </c>
       <c r="L53" s="4">
-        <f>AVERAGE(L25,O25,R25)</f>
+        <f t="shared" si="1"/>
         <v>2.9099999999999997E-2</v>
       </c>
     </row>
     <row r="54" spans="1:29">
+      <c r="A54" s="3">
+        <v>36889</v>
+      </c>
+      <c r="B54" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0799999999999999E-2</v>
+      </c>
       <c r="K54" s="3">
         <v>36889</v>
       </c>
       <c r="L54" s="4">
-        <f>AVERAGE(L26,O26,R26)</f>
+        <f t="shared" si="1"/>
         <v>2.7399999999999997E-2</v>
       </c>
     </row>
